--- a/scripts/january.xlsx
+++ b/scripts/january.xlsx
@@ -828,18 +828,14 @@
       <c r="D3" s="2" t="n">
         <v>0.08</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.5</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>12/31/25</t>
@@ -859,18 +855,14 @@
       <c r="O3" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>98.48999999999999</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.14</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -890,18 +882,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.09</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>98.86</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.25</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -921,18 +909,14 @@
       <c r="AK3" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>98.63</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.16</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -952,18 +936,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.75</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.5</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -3353,18 +3333,14 @@
       <c r="D3" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.98</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.68000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -3384,18 +3360,14 @@
       <c r="O3" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.26000000000001</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -3415,18 +3387,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.23</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.84999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3455,9 +3423,7 @@
       <c r="AN3" s="1" t="n">
         <v>98.93000000000001</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3476,9 +3442,7 @@
       <c r="C4" s="1" t="n">
         <v>-4e-05</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v/>
-      </c>
+      <c r="D4" s="2" t="n"/>
       <c r="E4" s="1" t="n">
         <v>0.86755</v>
       </c>
@@ -3661,12 +3625,8 @@
       <c r="X5" s="1" t="n">
         <v>0.5352</v>
       </c>
-      <c r="Y5" s="1" t="n">
-        <v/>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v/>
-      </c>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="2" t="n"/>
       <c r="AA5" s="1" t="n">
         <v>0.5352</v>
       </c>
@@ -5520,18 +5480,14 @@
       <c r="D3" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>99.48999999999999</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>99.09</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5582,18 +5538,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.36</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.47</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>99.01000000000001</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5613,18 +5565,14 @@
       <c r="AK3" s="2" t="n">
         <v>-0.85</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>99.14</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.25</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5644,18 +5592,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.87</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.38</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8121,18 +8065,14 @@
       <c r="D3" s="2" t="n">
         <v>-0.49</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.83</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.28</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8161,9 +8101,7 @@
       <c r="R3" s="1" t="n">
         <v>97.43000000000001</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -8192,9 +8130,7 @@
       <c r="AC3" s="1" t="n">
         <v>96.81</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>01/27/26</t>
@@ -8223,9 +8159,7 @@
       <c r="AN3" s="1" t="n">
         <v>95.55</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8254,9 +8188,7 @@
       <c r="AY3" s="1" t="n">
         <v>95.86</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -10503,9 +10435,7 @@
       <c r="G3" s="1" t="n">
         <v>96.02</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -10534,9 +10464,7 @@
       <c r="R3" s="1" t="n">
         <v>96.31999999999999</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
